--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010078</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>005793</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>华富可转债债券</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>20.12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161609</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通动力先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>79.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001448</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商双翼平衡混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010079</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003598</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010078</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010079</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007509</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000746</t>
+          <t>010379</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商行业精选股票</t>
+          <t>广发均衡优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003598</t>
+          <t>000746</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商润丰灵活配置混合A</t>
+          <t>招商行业精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62.27</t>
+          <t>52.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007509</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商润丰灵活配置混合C</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.27</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>161706</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>招商优质成长混合 (LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>26.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>163418</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>73.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>163411</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
+          <t>兴全精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>52.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000803</t>
+          <t>009601</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银研究精选股票</t>
+          <t>招商科技动力3个月滚动持有股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>360006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>光大保德信新增长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>63.90</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010380</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发均衡优选混合C</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>63.90</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161706</t>
+          <t>008261</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商优质成长混合 (LOF)</t>
+          <t>招商研究优选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>360006</t>
+          <t>003416</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>光大保德信新增长混合</t>
+          <t>招商财经大数据策略股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>010380</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>广发均衡优选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.29</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.79</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006689</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>方正富邦信泓灵活配置混合A</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>86.41</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008182</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>方正富邦信泓灵活配置混合C</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>86.41</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>53.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>009602</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>招商科技动力3个月滚动持有股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010002</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票C</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>002597</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合A</t>
+          <t>兴业成长动力灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>53.66</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>53.66</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>410006</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华富策略精选混合</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>008262</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>招商研究优选股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001563</t>
+          <t>000803</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华富健康文娱灵活配置混合</t>
+          <t>工银研究精选股票</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001864</t>
+          <t>008893</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中海魅力长三角灵活配置混合</t>
+          <t>创金合信鑫利混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>68.27</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>002844</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>金鹰多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>001864</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>中海魅力长三角灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>创金合信研究精选股票A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>003598</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>华商润丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>163411</t>
+          <t>011098</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴全精选混合</t>
+          <t>达诚宜创精选混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>163418</t>
+          <t>007509</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+          <t>华商润丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008893</t>
+          <t>006689</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合A</t>
+          <t>方正富邦信泓灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2022,25 +2572,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008894</t>
+          <t>008182</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合C</t>
+          <t>方正富邦信泓灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002597</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>兴业成长动力灵活配置混合</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>8</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002844</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金鹰多元策略灵活配置混合</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>54.19</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
+          <t>53.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>010002</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>创金合信研究精选股票C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003416</t>
+          <t>008894</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>招商财经大数据策略股票A</t>
+          <t>创金合信鑫利混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>007952</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>招商财经大数据策略股票C</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2218,25 +2838,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>008261</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>招商研究优选股票A</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>82.39</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>008262</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>招商研究优选股票C</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>82.39</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>7</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>001563</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>华富健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>009601</t>
+          <t>410006</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>招商科技动力3个月滚动持有股票A</t>
+          <t>华富策略精选混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>82.97</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>7</v>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2330,26 +2990,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>009602</t>
+          <t>007952</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>招商科技动力3个月滚动持有股票C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>82.97</t>
-        </is>
-      </c>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>7</v>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2998,7 +2999,6 @@
           <t>招商财经大数据策略股票C</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>81.93</t>
@@ -3014,6 +3014,1272 @@
       </c>
       <c r="H50" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4173</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0974</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0949</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0794</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8748</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4264,7 +4265,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>90.01</t>
@@ -4280,6 +4280,1240 @@
       </c>
       <c r="H33" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2381</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1981</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0430</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8368</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8228</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7778</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7505</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5519,4 +5520,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5528,7 +5529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5539,17 +5540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5559,14 +5580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.52</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5575,14 +5618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.41</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5591,14 +5656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.75</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5607,13 +5694,2545 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9532</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4176</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0963</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0774</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0281</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0280</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0106</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9117</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8975</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8365</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6666</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5699</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5667</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8131,7 +8132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8142,17 +8143,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8162,14 +8183,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>47.61</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8178,14 +8221,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.52</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8194,14 +8259,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.41</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7561</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8210,14 +8297,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>49</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.75</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8226,13 +8335,3777 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0651</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8952</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4067</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1413</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1255</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0252</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8718</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8350</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8339</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7329</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6374</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>39.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013029</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>54.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>53.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>54.62</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>49</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11988,7 +11989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11999,17 +12000,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12019,14 +12040,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.95</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9167</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -12035,14 +12078,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>47.61</v>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -12051,14 +12116,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.52</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -12067,14 +12154,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.41</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -12083,14 +12192,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.75</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -12099,13 +12230,6861 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3120</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0489</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9913</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9602</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9177</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6917</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5610</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4796</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2899</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2722</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2344</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1864</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0910</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0644</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9642</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9430</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9339</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8945</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8470</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7287</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6735</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3749</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001265</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>29.02</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>29.02</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>56.75</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002055</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>167003</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010228</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010229</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）D</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>182</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D2" t="n">
-        <v>65.03</v>
+        <v>56.78</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="D3" t="n">
-        <v>42.95</v>
+        <v>65.03</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>47.61</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>25.52</v>
+        <v>47.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>24.41</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>17.75</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.27</v>
       </c>
     </row>
@@ -600,6 +617,6670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1951</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9939</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安研究智选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5610</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4532</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3893</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3361</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2555</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1928</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1068</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0838</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9895</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9680</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9180</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8505</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8413</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8188</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7840</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7815</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5987</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5915</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011663</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5281</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4414</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013661</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安研究领航混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011664</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014878</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011693</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安研究智选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014177</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安景气驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013662</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安研究领航混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方红领先精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014879</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014178</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华安景气驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7561,7 +14242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11417,7 +18098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14019,7 +20700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15253,7 +21934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16518,7 +23199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18429,7 +25110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
+++ b/数据整理/stocks/A股/上证主板/601111-中国国航.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D2" t="n">
-        <v>56.78</v>
+        <v>51.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D3" t="n">
-        <v>65.03</v>
+        <v>56.78</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="D4" t="n">
-        <v>42.95</v>
+        <v>65.03</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>47.61</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>25.52</v>
+        <v>47.61</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>24.41</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>17.75</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>49</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010078</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005793</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富可转债债券</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010079</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,6174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H162"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8855</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安研究智选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3598</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3529</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1270</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0968</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9105</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8605</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6780</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014228</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6683</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6375</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6243</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6023</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5892</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5332</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5243</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5243</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011663</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4037</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013661</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安研究领航混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011664</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014878</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011693</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安研究智选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016556</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>33.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013662</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安研究领航混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014545</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浦银安盛兴耀优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014879</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013259</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014229</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浦银安盛品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014546</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>浦银安盛兴耀优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>75.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>80.92</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011798</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011799</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>016179</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>017194</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7280,7 +14129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14242,7 +21091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18098,7 +24947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20700,7 +27549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21934,7 +28783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23199,7 +30048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25108,668 +31957,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2252</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161609</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通动力先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7492</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3420</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1826</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1800</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1460</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003598</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0736</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007509</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010078</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001448</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商双翼平衡混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005793</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华富可转债债券</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20.12</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010079</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>